--- a/application/controllers/excel-templates/Customer_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/Customer_Tax_Invoice_Intra_State.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tax Invoice - Inter State" sheetId="1" r:id="rId3"/>
+    <sheet name="Tax Invoice - Inter State" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -188,54 +196,57 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -245,7 +256,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -255,79 +266,119 @@
     </fill>
   </fills>
   <borders count="54">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -337,51 +388,67 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -391,27 +458,34 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -421,56 +495,76 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -480,8 +574,10 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -491,11 +587,16 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -504,6 +605,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -513,35 +617,49 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -549,6 +667,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -558,11 +677,17 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -575,17 +700,21 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -593,6 +722,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -601,8 +731,12 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -612,6 +746,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -626,23 +761,30 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -650,6 +792,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -658,19 +801,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -680,8 +829,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -691,266 +842,571 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="89">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="32" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="40" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="44" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="43" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="48" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="48" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="49" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="52" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:G17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="0.86"/>
-    <col customWidth="1" min="2" max="2" width="2.71"/>
-    <col customWidth="1" min="3" max="3" width="4.29"/>
-    <col customWidth="1" min="4" max="4" width="4.14"/>
-    <col customWidth="1" min="5" max="6" width="3.71"/>
-    <col customWidth="1" min="7" max="7" width="0.71"/>
-    <col customWidth="1" min="8" max="8" width="7.71"/>
-    <col customWidth="1" min="9" max="10" width="4.71"/>
-    <col customWidth="1" min="11" max="11" width="4.29"/>
-    <col customWidth="1" min="12" max="12" width="4.71"/>
-    <col customWidth="1" min="13" max="13" width="3.43"/>
-    <col customWidth="1" min="14" max="14" width="4.29"/>
-    <col customWidth="1" min="15" max="15" width="1.71"/>
-    <col customWidth="1" min="16" max="16" width="3.86"/>
-    <col customWidth="1" min="17" max="17" width="3.14"/>
-    <col customWidth="1" min="18" max="18" width="4.0"/>
-    <col customWidth="1" min="19" max="19" width="6.71"/>
-    <col customWidth="1" min="20" max="26" width="12.71"/>
+    <col min="1" max="1" width="0.83203125" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" customWidth="1"/>
+    <col min="5" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="0.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.83203125" customWidth="1"/>
+    <col min="17" max="17" width="3.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="26" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="3.75" customHeight="1">
+    <row r="1" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -978,28 +1434,28 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="19"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1008,15 +1464,30 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
+    <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="S3" s="21"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -1025,12 +1496,28 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1039,28 +1526,28 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="11"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="23"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1069,28 +1556,28 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1099,26 +1586,26 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="11"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1127,9 +1614,9 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="69" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="15"/>
@@ -1139,20 +1626,20 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17" t="s">
+      <c r="J8" s="79"/>
+      <c r="K8" s="70" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
-      <c r="P8" s="18" t="s">
+      <c r="P8" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="20"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1161,9 +1648,9 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="15"/>
@@ -1174,19 +1661,19 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="70" t="s">
         <v>10</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
-      <c r="P9" s="22" t="s">
+      <c r="P9" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="20"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1195,28 +1682,28 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="38"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1225,28 +1712,28 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1255,28 +1742,28 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="20"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="57"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1285,26 +1772,26 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="60"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1313,32 +1800,32 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="34" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="34" t="s">
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="37"/>
+      <c r="S14" s="13"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1347,36 +1834,40 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="40" t="s">
+      <c r="I15" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="44" t="s">
+      <c r="L15" s="46"/>
+      <c r="M15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="45"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="44" t="s">
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47" t="s">
+      <c r="Q15" s="53"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="63" t="s">
         <v>25</v>
       </c>
       <c r="T15" s="1"/>
@@ -1387,30 +1878,34 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="48"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="51" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="51" t="s">
+      <c r="O16" s="62"/>
+      <c r="P16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="52" t="s">
+      <c r="Q16" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="53"/>
-      <c r="S16" s="54"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="64"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1419,44 +1914,44 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="28.5" customHeight="1">
+    <row r="17" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57" t="s">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="56"/>
-      <c r="M17" s="57" t="s">
+      <c r="L17" s="43"/>
+      <c r="M17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="59" t="s">
+      <c r="N17" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="56"/>
-      <c r="P17" s="57" t="s">
+      <c r="O17" s="43"/>
+      <c r="P17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="59" t="s">
+      <c r="Q17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="56"/>
-      <c r="S17" s="60" t="s">
+      <c r="R17" s="43"/>
+      <c r="S17" s="5" t="s">
         <v>36</v>
       </c>
       <c r="T17" s="1"/>
@@ -1467,36 +1962,36 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="30.0" customHeight="1">
+    <row r="18" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65" t="s">
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="65"/>
-      <c r="K18" s="66" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="67"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="66" t="s">
+      <c r="L18" s="29"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="67"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="66" t="s">
+      <c r="O18" s="29"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="67"/>
-      <c r="S18" s="70" t="s">
+      <c r="R18" s="29"/>
+      <c r="S18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="T18" s="1"/>
@@ -1507,32 +2002,32 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="72" t="s">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74" t="s">
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1541,32 +2036,32 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="76" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="87" t="s">
         <v>46</v>
       </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="77" t="s">
+      <c r="O20" s="79"/>
+      <c r="P20" s="14" t="s">
         <v>47</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="78"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -1575,23 +2070,30 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="48"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="76" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="87" t="s">
         <v>48</v>
       </c>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="77" t="s">
+      <c r="O21" s="79"/>
+      <c r="P21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
-      <c r="S21" s="78"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1600,30 +2102,30 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="79" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="80" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="37"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="13"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -1632,32 +2134,32 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="84" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="71">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="25"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="38"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -1666,22 +2168,28 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="48"/>
-      <c r="G24" s="39"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="85" t="s">
+      <c r="B24" s="26"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="4"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -1690,13 +2198,26 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="48"/>
-      <c r="G25" s="39"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="48"/>
-      <c r="S25" s="7"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="21"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -1705,20 +2226,26 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="48"/>
-      <c r="G26" s="39"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="4"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="19"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -1727,13 +2254,26 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="48"/>
-      <c r="G27" s="39"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="48"/>
-      <c r="S27" s="7"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="21"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -1742,13 +2282,26 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="48"/>
-      <c r="G28" s="39"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="48"/>
-      <c r="S28" s="7"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="21"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -1757,20 +2310,26 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="0.75" customHeight="1">
+    <row r="29" spans="1:26" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="48"/>
-      <c r="G29" s="39"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="11"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="23"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -1779,28 +2338,28 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="87" t="s">
+      <c r="B30" s="28"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="11"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="23"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -1809,28 +2368,28 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -1839,7 +2398,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1869,17 +2428,30 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="H23:J30"/>
-    <mergeCell ref="B23:G30"/>
-    <mergeCell ref="B31:S31"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K26:S29"/>
-    <mergeCell ref="K24:S25"/>
-    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B6:S7"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="B12:S13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="J14:Q14"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="K18:L18"/>
@@ -1890,40 +2462,27 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="P15:R15"/>
-    <mergeCell ref="B12:S13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B11:S11"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B6:S7"/>
-    <mergeCell ref="B10:S10"/>
-    <mergeCell ref="B8:J8"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J22"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K26:S29"/>
+    <mergeCell ref="K24:S25"/>
     <mergeCell ref="K22:O22"/>
     <mergeCell ref="K23:O23"/>
-    <mergeCell ref="B20:J22"/>
-    <mergeCell ref="K20:O20"/>
     <mergeCell ref="K21:O21"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P21:S21"/>
+    <mergeCell ref="H23:J30"/>
+    <mergeCell ref="B23:G30"/>
+    <mergeCell ref="B31:S31"/>
+    <mergeCell ref="K30:S30"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/Customer_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/Customer_Tax_Invoice_Intra_State.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/247around-adminp-aws/application/controllers/excel-templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around\application\controllers\excel-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420B558A-0FA8-4FD4-BEB5-A34C481DF48E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tax Invoice - Inter State" sheetId="1" r:id="rId1"/>
@@ -196,8 +197,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -904,74 +905,102 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -984,63 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1049,20 +1021,49 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,6 +1080,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0739A4C7-899D-4565-B28B-237F9E3A8214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="161925"/>
+          <a:ext cx="723900" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1377,36 +1433,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G17"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" customWidth="1"/>
-    <col min="5" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="0.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16" width="3.83203125" customWidth="1"/>
-    <col min="17" max="17" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="4.140625" customWidth="1"/>
+    <col min="5" max="6" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="4.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4.28515625" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16" width="3.85546875" customWidth="1"/>
+    <col min="17" max="17" width="3.140625" customWidth="1"/>
     <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="26" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="26" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="3.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1434,28 +1490,28 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1464,9 +1520,9 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="30" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="20"/>
@@ -1484,10 +1540,10 @@
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="21"/>
+      <c r="S3" s="25"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -1496,9 +1552,9 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="20"/>
@@ -1517,7 +1573,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
       <c r="R4" s="20"/>
-      <c r="S4" s="21"/>
+      <c r="S4" s="25"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1526,28 +1582,28 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" s="1"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1556,28 +1612,28 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="23"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1586,26 +1642,26 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1614,32 +1670,32 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="1"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="70" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="88" t="s">
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="57"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1648,32 +1704,32 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26">
       <c r="A9" s="1"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="70" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="71" t="s">
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="39"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1682,28 +1738,28 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26">
       <c r="A10" s="1"/>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="38"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1712,28 +1768,28 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26">
       <c r="A11" s="1"/>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="52"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1742,28 +1798,28 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26">
       <c r="A12" s="1"/>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="57"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="39"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1772,26 +1828,26 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26">
       <c r="A13" s="1"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1800,32 +1856,32 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26">
       <c r="A14" s="1"/>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="67" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="67" t="s">
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="13"/>
+      <c r="S14" s="18"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1834,40 +1890,40 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26">
       <c r="A15" s="1"/>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="61" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="51" t="s">
+      <c r="G15" s="60"/>
+      <c r="H15" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="51" t="s">
+      <c r="I15" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="45" t="s">
+      <c r="K15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="52" t="s">
+      <c r="L15" s="58"/>
+      <c r="M15" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="52" t="s">
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="63" t="s">
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="47" t="s">
         <v>25</v>
       </c>
       <c r="T15" s="1"/>
@@ -1878,34 +1934,34 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26">
       <c r="A16" s="1"/>
-      <c r="B16" s="26"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="27"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
       <c r="M16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="61" t="s">
+      <c r="N16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="62"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="61" t="s">
+      <c r="Q16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="62"/>
-      <c r="S16" s="64"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="48"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1914,16 +1970,16 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="50.1" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="43"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1933,24 +1989,24 @@
       <c r="J17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="43"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="43"/>
+      <c r="O17" s="14"/>
       <c r="P17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="42" t="s">
+      <c r="Q17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="43"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="5" t="s">
         <v>36</v>
       </c>
@@ -1962,35 +2018,35 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="30" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="6"/>
       <c r="I18" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="44" t="s">
+      <c r="K18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="29"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="44" t="s">
+      <c r="N18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="29"/>
+      <c r="O18" s="12"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="29"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="10" t="s">
         <v>41</v>
       </c>
@@ -2002,32 +2058,32 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26">
       <c r="A19" s="1"/>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="34" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="31" t="s">
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="52"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -2036,32 +2092,32 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26">
       <c r="A20" s="1"/>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="87" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="14" t="s">
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="16"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="56"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2070,9 +2126,9 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -2080,20 +2136,20 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="87" t="s">
+      <c r="J21" s="25"/>
+      <c r="K21" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="14" t="s">
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="16"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="56"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -2102,30 +2158,30 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26">
       <c r="A22" s="1"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="84" t="s">
+      <c r="B22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="11" t="s">
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="13"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="18"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -2134,32 +2190,32 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26">
       <c r="A23" s="1"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="85" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="36">
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="73">
         <v>0</v>
       </c>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="38"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="32"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -2168,28 +2224,28 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26">
       <c r="A24" s="1"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="27"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="40" t="s">
+      <c r="J24" s="25"/>
+      <c r="K24" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="19"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="23"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -2198,18 +2254,18 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26">
       <c r="A25" s="1"/>
-      <c r="B25" s="26"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="27"/>
+      <c r="G25" s="60"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="26"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="62"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
@@ -2217,7 +2273,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
-      <c r="S25" s="21"/>
+      <c r="S25" s="25"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2226,26 +2282,26 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26">
       <c r="A26" s="1"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="27"/>
+      <c r="G26" s="60"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="19"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="23"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -2254,18 +2310,18 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26">
       <c r="A27" s="1"/>
-      <c r="B27" s="26"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="27"/>
+      <c r="G27" s="60"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="26"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
@@ -2273,7 +2329,7 @@
       <c r="P27" s="20"/>
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
-      <c r="S27" s="21"/>
+      <c r="S27" s="25"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -2282,18 +2338,18 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26">
       <c r="A28" s="1"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="27"/>
+      <c r="G28" s="60"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="26"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
@@ -2301,7 +2357,7 @@
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="21"/>
+      <c r="S28" s="25"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2310,26 +2366,26 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="0.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="27"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="23"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="29"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2338,28 +2394,28 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26">
       <c r="A30" s="1"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="41" t="s">
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="23"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="29"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -2368,28 +2424,28 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26">
       <c r="A31" s="1"/>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -2398,7 +2454,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2428,31 +2484,19 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B6:S7"/>
-    <mergeCell ref="B10:S10"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="B12:S13"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B11:S11"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="H23:J30"/>
+    <mergeCell ref="B23:G30"/>
+    <mergeCell ref="B31:S31"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K26:S29"/>
+    <mergeCell ref="K24:S25"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="P21:S21"/>
     <mergeCell ref="P20:S20"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="K15:L16"/>
@@ -2469,20 +2513,33 @@
     <mergeCell ref="B20:J22"/>
     <mergeCell ref="K20:O20"/>
     <mergeCell ref="P19:S19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K26:S29"/>
-    <mergeCell ref="K24:S25"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="H23:J30"/>
-    <mergeCell ref="B23:G30"/>
-    <mergeCell ref="B31:S31"/>
-    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="B12:S13"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B6:S7"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="Q17:R17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/Customer_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/Customer_Tax_Invoice_Intra_State.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C1B5E-6CE7-4020-A99B-D83E6CB13586}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tax Invoice - Inter State" sheetId="1" r:id="rId3"/>
+    <sheet name="Tax Invoice - Inter State" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -179,98 +188,67 @@
     <t>For {meta:company_name}</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">  Book Appliance Service from Qualified Engineers on "247AROUND" App / On Phone - </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>9555000247</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> / On Website - </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>www.247around.com</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>This is a computer generated invoice, no signature is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {meta:main_company_description}
 Blackmelon Advance Technology Co. Pvt. Ltd.</t>
-    </r>
-  </si>
-  <si>
-    <t>This is a computer generated invoice, no signature is required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -280,7 +258,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,79 +268,119 @@
     </fill>
   </fills>
   <borders count="63">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -372,51 +390,67 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -426,27 +460,34 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -456,130 +497,175 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top/>
-    </border>
-    <border>
-      <top/>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="thin">
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -589,21 +675,33 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -612,13 +710,18 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -631,17 +734,21 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -649,6 +756,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -657,9 +765,12 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom/>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -669,6 +780,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -683,23 +795,30 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -707,6 +826,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -715,22 +835,31 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -739,8 +868,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -750,8 +883,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -761,383 +896,612 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="96">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="32" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="33" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="34" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="43" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="44" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="48" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="47" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="49" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="52" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="52" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="54" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="55" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="56" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="57" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="58" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="58" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="59" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="54" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="60" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="61" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="62" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="723900" cy="723900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="657225" cy="742950"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="657225" cy="742950"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="0.86"/>
-    <col customWidth="1" min="2" max="2" width="2.71"/>
-    <col customWidth="1" min="3" max="3" width="4.29"/>
-    <col customWidth="1" min="4" max="4" width="4.14"/>
-    <col customWidth="1" min="5" max="6" width="3.71"/>
-    <col customWidth="1" min="7" max="7" width="0.71"/>
-    <col customWidth="1" min="8" max="8" width="7.71"/>
-    <col customWidth="1" min="9" max="10" width="4.71"/>
-    <col customWidth="1" min="11" max="11" width="4.29"/>
-    <col customWidth="1" min="12" max="12" width="4.71"/>
-    <col customWidth="1" min="13" max="13" width="3.43"/>
-    <col customWidth="1" min="14" max="14" width="4.29"/>
-    <col customWidth="1" min="15" max="15" width="1.71"/>
-    <col customWidth="1" min="16" max="16" width="3.86"/>
-    <col customWidth="1" min="17" max="17" width="3.14"/>
-    <col customWidth="1" min="18" max="18" width="4.0"/>
-    <col customWidth="1" min="19" max="19" width="6.71"/>
-    <col customWidth="1" min="20" max="20" width="0.71"/>
-    <col customWidth="1" min="21" max="26" width="12.71"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="4.109375" customWidth="1"/>
+    <col min="5" max="6" width="3.6640625" customWidth="1"/>
+    <col min="7" max="7" width="0.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" customWidth="1"/>
+    <col min="9" max="10" width="4.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.88671875" customWidth="1"/>
+    <col min="17" max="17" width="3.109375" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="0.6640625" customWidth="1"/>
+    <col min="21" max="26" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="3.75" customHeight="1">
+    <row r="1" spans="1:26" ht="3.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1165,28 +1529,28 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="4"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1195,16 +1559,28 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
+    <row r="3" spans="1:26" ht="30" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="5"/>
-      <c r="E3" s="6" t="s">
+      <c r="B3" s="2"/>
+      <c r="E3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="8"/>
+      <c r="S3" s="17"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -1213,12 +1589,28 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:26" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="17"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1227,28 +1619,28 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1257,28 +1649,28 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="14"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1287,26 +1679,26 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="20"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1315,32 +1707,32 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="14.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="18" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="19" t="s">
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1349,32 +1741,32 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="14.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="18" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="22" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="21"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="60"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1383,28 +1775,28 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="14.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="47"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1413,28 +1805,28 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="14.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1443,28 +1835,28 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="14.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="60"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1473,26 +1865,26 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="14.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="69"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1501,32 +1893,32 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="14.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="34" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="34" t="s">
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="37"/>
+      <c r="S14" s="46"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1535,40 +1927,40 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="14.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41" t="s">
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="43" t="s">
+      <c r="L15" s="80"/>
+      <c r="M15" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="43" t="s">
+      <c r="N15" s="89"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46" t="s">
+      <c r="Q15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="86" t="s">
         <v>25</v>
       </c>
       <c r="T15" s="1"/>
@@ -1579,34 +1971,34 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="14.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="52" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="94"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="N16" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="52" t="s">
+      <c r="O16" s="85"/>
+      <c r="P16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="53" t="s">
+      <c r="Q16" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="54"/>
-      <c r="S16" s="55"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="87"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1615,44 +2007,44 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="49.5" customHeight="1">
+    <row r="17" spans="1:26" ht="49.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="58" t="s">
+      <c r="J17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="60" t="s">
+      <c r="K17" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58" t="s">
+      <c r="L17" s="26"/>
+      <c r="M17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="60" t="s">
+      <c r="N17" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58" t="s">
+      <c r="O17" s="26"/>
+      <c r="P17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="57"/>
-      <c r="S17" s="61" t="s">
+      <c r="R17" s="26"/>
+      <c r="S17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="T17" s="1"/>
@@ -1663,36 +2055,36 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="30.0" customHeight="1">
+    <row r="18" spans="1:26" ht="30" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="66" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="68"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="67" t="s">
+      <c r="L18" s="24"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="68"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="67" t="s">
+      <c r="O18" s="24"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="71" t="s">
+      <c r="R18" s="24"/>
+      <c r="S18" s="11" t="s">
         <v>41</v>
       </c>
       <c r="T18" s="1"/>
@@ -1703,32 +2095,32 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="14.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="73" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="75" t="s">
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="42"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1737,32 +2129,32 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="14.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="77" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="78" t="s">
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="79"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="39"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -1771,23 +2163,30 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="80"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="77" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="78" t="s">
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="79"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="39"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1796,30 +2195,30 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="81" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="82" t="s">
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="37"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="46"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -1828,32 +2227,32 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="86" t="s">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="72">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="25"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="47"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -1862,22 +2261,28 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="80"/>
-      <c r="G24" s="87"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="88" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="4"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="14"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -1886,20 +2291,26 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="80"/>
-      <c r="G25" s="87"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="89"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="51"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -1908,20 +2319,26 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="80"/>
-      <c r="G26" s="87"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="4"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -1930,13 +2347,26 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="80"/>
-      <c r="G27" s="87"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="80"/>
-      <c r="S27" s="8"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="17"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -1945,13 +2375,26 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="80"/>
-      <c r="G28" s="87"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="80"/>
-      <c r="S28" s="8"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="17"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -1960,20 +2403,26 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" ht="0.75" customHeight="1">
+    <row r="29" spans="1:26" ht="0.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="80"/>
-      <c r="G29" s="87"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="12"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="20"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -1982,26 +2431,26 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="12"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="20"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -2010,28 +2459,28 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" ht="42.75" customHeight="1">
+    <row r="31" spans="1:26" ht="42.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="17"/>
+      <c r="B31" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="32"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -2040,28 +2489,28 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="94"/>
+      <c r="B32" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="35"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -3040,41 +3489,10 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B20:J22"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="B23:G30"/>
-    <mergeCell ref="B31:S31"/>
-    <mergeCell ref="B32:S32"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="K26:S29"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="H23:J30"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K24:S25"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="B6:S7"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="E3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B12:S13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="P8:S8"/>
     <mergeCell ref="B10:S10"/>
     <mergeCell ref="K21:O21"/>
     <mergeCell ref="P21:S21"/>
@@ -3091,14 +3509,44 @@
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="K15:L16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="B12:S13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="E3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="B6:S7"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="B23:G30"/>
+    <mergeCell ref="B31:S31"/>
+    <mergeCell ref="B32:S32"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="K26:S29"/>
+    <mergeCell ref="H23:J30"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K24:S25"/>
+    <mergeCell ref="B20:J22"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B17:G17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.25" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.25"/>
+  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/application/controllers/excel-templates/Customer_Tax_Invoice_Intra_State.xlsx
+++ b/application/controllers/excel-templates/Customer_Tax_Invoice_Intra_State.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\247around-adminp-aws\application\controllers\excel-templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9C1B5E-6CE7-4020-A99B-D83E6CB13586}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Tax Invoice - Inter State" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Tax Invoice - Inter State" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -37,7 +28,7 @@
     <t>GSTIN: {meta:gst_number}</t>
   </si>
   <si>
-    <t>Tax Invoice</t>
+    <t>{meta:invoice_type}</t>
   </si>
   <si>
     <t>Invoice No: {meta:invoice_id}</t>
@@ -188,67 +179,66 @@
     <t>For {meta:company_name}</t>
   </si>
   <si>
-    <t>This is a computer generated invoice, no signature is required.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    {meta:main_company_description}
 Blackmelon Advance Technology Co. Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>This is a computer generated invoice, no signature is required.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="10">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="18.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -258,7 +248,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -268,928 +258,752 @@
     </fill>
   </fills>
   <borders count="63">
-    <border>
-      <left/>
-      <right/>
+    <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <top/>
+    </border>
+    <border>
+      <top/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+    </border>
+    <border>
+      <bottom/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+    </border>
+    <border>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+    </border>
+    <border>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+    </border>
+    <border>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="95">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="15" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="29" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="32" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="34" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="37" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="39" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="40" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="43" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="44" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="45" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="46" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="48" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="47" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="49" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="50" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="52" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="52" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="54" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="55" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="56" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="57" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="58" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="58" fillId="0" fontId="9" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="59" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="54" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="60" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="61" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf borderId="62" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -1213,113 +1027,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1460,48 +1180,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.109375" customWidth="1"/>
-    <col min="5" max="6" width="3.6640625" customWidth="1"/>
-    <col min="7" max="7" width="0.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" customWidth="1"/>
-    <col min="9" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" customWidth="1"/>
-    <col min="13" max="13" width="3.44140625" customWidth="1"/>
-    <col min="14" max="14" width="4.33203125" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16" width="3.88671875" customWidth="1"/>
-    <col min="17" max="17" width="3.109375" customWidth="1"/>
-    <col min="18" max="18" width="4" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="20" width="0.6640625" customWidth="1"/>
-    <col min="21" max="26" width="12.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="0.86"/>
+    <col customWidth="1" min="2" max="2" width="2.71"/>
+    <col customWidth="1" min="3" max="3" width="4.29"/>
+    <col customWidth="1" min="4" max="4" width="4.14"/>
+    <col customWidth="1" min="5" max="6" width="3.71"/>
+    <col customWidth="1" min="7" max="7" width="0.71"/>
+    <col customWidth="1" min="8" max="8" width="7.71"/>
+    <col customWidth="1" min="9" max="10" width="4.71"/>
+    <col customWidth="1" min="11" max="11" width="4.29"/>
+    <col customWidth="1" min="12" max="12" width="4.71"/>
+    <col customWidth="1" min="13" max="13" width="3.43"/>
+    <col customWidth="1" min="14" max="14" width="4.29"/>
+    <col customWidth="1" min="15" max="15" width="1.71"/>
+    <col customWidth="1" min="16" max="16" width="3.86"/>
+    <col customWidth="1" min="17" max="17" width="3.14"/>
+    <col customWidth="1" min="18" max="18" width="4.0"/>
+    <col customWidth="1" min="19" max="19" width="6.71"/>
+    <col customWidth="1" min="20" max="20" width="0.71"/>
+    <col customWidth="1" min="21" max="26" width="12.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="3.75" customHeight="1">
+    <row r="1" ht="3.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1529,28 +1242,28 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="20.25" customHeight="1">
+    <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="14"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
@@ -1559,28 +1272,16 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="30" customHeight="1">
+    <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="E3" s="64" t="s">
+      <c r="B3" s="5"/>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="65" t="s">
+      <c r="R3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="17"/>
+      <c r="S3" s="8"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -1589,28 +1290,12 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="17"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
@@ -1619,28 +1304,28 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="14.4">
+    <row r="5">
       <c r="A5" s="1"/>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="20"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
@@ -1649,28 +1334,28 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="14"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -1679,26 +1364,26 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="20"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -1707,32 +1392,32 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="14.4">
+    <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="61" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="95" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
@@ -1741,32 +1426,32 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="14.4">
+    <row r="9">
       <c r="A9" s="1"/>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="61" t="s">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="58" t="s">
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="60"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1775,28 +1460,28 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="14.4">
+    <row r="10">
       <c r="A10" s="1"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="47"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
@@ -1805,28 +1490,28 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="14.4">
+    <row r="11">
       <c r="A11" s="1"/>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="42"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1835,28 +1520,28 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="14.4">
+    <row r="12">
       <c r="A12" s="1"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="60"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1865,26 +1550,26 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="14.4">
+    <row r="13">
       <c r="A13" s="1"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="69"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1893,32 +1578,32 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
+    <row r="14">
       <c r="A14" s="1"/>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="71" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="71" t="s">
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="S14" s="46"/>
+      <c r="S14" s="37"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1927,40 +1612,40 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="14.4">
+    <row r="15">
       <c r="A15" s="1"/>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="82" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="82" t="s">
+      <c r="J15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="93" t="s">
+      <c r="K15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="80"/>
-      <c r="M15" s="88" t="s">
+      <c r="L15" s="40"/>
+      <c r="M15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="89"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="88" t="s">
+      <c r="N15" s="44"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="86" t="s">
+      <c r="Q15" s="44"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46" t="s">
         <v>25</v>
       </c>
       <c r="T15" s="1"/>
@@ -1971,34 +1656,34 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="14.4">
+    <row r="16">
       <c r="A16" s="1"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="3" t="s">
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="84" t="s">
+      <c r="N16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="85"/>
-      <c r="P16" s="3" t="s">
+      <c r="O16" s="54"/>
+      <c r="P16" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="84" t="s">
+      <c r="Q16" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="85"/>
-      <c r="S16" s="87"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="55"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -2007,44 +1692,44 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="49.5" customHeight="1">
+    <row r="17" ht="49.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="4" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="26"/>
-      <c r="M17" s="4" t="s">
+      <c r="L17" s="57"/>
+      <c r="M17" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="25" t="s">
+      <c r="N17" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="4" t="s">
+      <c r="O17" s="57"/>
+      <c r="P17" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="25" t="s">
+      <c r="Q17" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="6" t="s">
+      <c r="R17" s="57"/>
+      <c r="S17" s="61" t="s">
         <v>36</v>
       </c>
       <c r="T17" s="1"/>
@@ -2055,36 +1740,36 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="30" customHeight="1">
+    <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="23" t="s">
+      <c r="J18" s="66"/>
+      <c r="K18" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="23" t="s">
+      <c r="L18" s="68"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="23" t="s">
+      <c r="O18" s="68"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="24"/>
-      <c r="S18" s="11" t="s">
+      <c r="R18" s="68"/>
+      <c r="S18" s="71" t="s">
         <v>41</v>
       </c>
       <c r="T18" s="1"/>
@@ -2095,32 +1780,32 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="14.4">
+    <row r="19">
       <c r="A19" s="1"/>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="91" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="40" t="s">
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="28"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -2129,32 +1814,32 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="14.4">
+    <row r="20">
       <c r="A20" s="1"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="75" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="38" t="s">
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="39"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="79"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2163,30 +1848,23 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="75" t="s">
+      <c r="B21" s="80"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="38" t="s">
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="39"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="79"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -2195,30 +1873,30 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="77" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="44" t="s">
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="37"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -2227,32 +1905,32 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="76" t="s">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="47"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="72">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="25"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
@@ -2261,28 +1939,22 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="48" t="s">
+      <c r="B24" s="80"/>
+      <c r="G24" s="87"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="4"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
@@ -2291,26 +1963,20 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="51"/>
+      <c r="B25" s="80"/>
+      <c r="G25" s="87"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="89"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -2319,26 +1985,20 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="14"/>
+      <c r="B26" s="80"/>
+      <c r="G26" s="87"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="4"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
@@ -2347,26 +2007,13 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="17"/>
+      <c r="B27" s="80"/>
+      <c r="G27" s="87"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="80"/>
+      <c r="S27" s="8"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
@@ -2375,26 +2022,13 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="17"/>
+      <c r="B28" s="80"/>
+      <c r="G28" s="87"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="80"/>
+      <c r="S28" s="8"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
@@ -2403,26 +2037,20 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="0.75" customHeight="1">
+    <row r="29" ht="0.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="20"/>
+      <c r="B29" s="80"/>
+      <c r="G29" s="87"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="12"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
@@ -2431,26 +2059,26 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="20"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="12"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
@@ -2459,28 +2087,28 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="42.75" customHeight="1">
+    <row r="31" ht="42.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="32"/>
+      <c r="B31" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="17"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
@@ -2489,28 +2117,28 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="35"/>
+      <c r="B32" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="94"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
@@ -3489,64 +3117,65 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="J15:J16"/>
     <mergeCell ref="M15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="K20:O20"/>
+    <mergeCell ref="P20:S20"/>
+    <mergeCell ref="K21:O21"/>
+    <mergeCell ref="P21:S21"/>
     <mergeCell ref="K8:O8"/>
     <mergeCell ref="P8:S8"/>
-    <mergeCell ref="B10:S10"/>
-    <mergeCell ref="K21:O21"/>
-    <mergeCell ref="P21:S21"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="B15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="B12:S13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="B11:S11"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="E3:Q3"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B4:S4"/>
     <mergeCell ref="B5:S5"/>
     <mergeCell ref="B6:S7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="K9:O9"/>
     <mergeCell ref="P9:S9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="B11:S11"/>
+    <mergeCell ref="B12:S13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J22"/>
     <mergeCell ref="B23:G30"/>
+    <mergeCell ref="H23:J30"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="B31:S31"/>
     <mergeCell ref="B32:S32"/>
-    <mergeCell ref="K30:S30"/>
-    <mergeCell ref="K26:S29"/>
-    <mergeCell ref="H23:J30"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K23:O23"/>
     <mergeCell ref="P23:S23"/>
     <mergeCell ref="K24:S25"/>
-    <mergeCell ref="B20:J22"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="K26:S29"/>
+    <mergeCell ref="K30:S30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins bottom="0.25" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.25"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>